--- a/TimeOffDay.xlsx
+++ b/TimeOffDay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech\Attendance_violation_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{01F6C01C-B345-452C-9402-7131297DDC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A7A55E-2824-4C2A-AEC1-7615E801EB7C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB72C4-1608-4B67-BC20-A1420DF107AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$J$4</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Employee</t>
   </si>
@@ -83,17 +80,17 @@
     <t>Special occasion</t>
   </si>
   <si>
-    <t>Sick Leave</t>
-  </si>
-  <si>
-    <t>Add all scenarios that can happen :D</t>
+    <t>Sick leave</t>
+  </si>
+  <si>
+    <t>leave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,9 +138,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,19 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -495,7 +489,7 @@
         <v>10035</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -512,12 +506,16 @@
         <v>10046</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>10046</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
@@ -526,64 +524,76 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="4"/>
+      <c r="C5" s="4">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="4"/>
+      <c r="C6" s="4">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="4"/>
+      <c r="C7" s="4">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="C8" s="4">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="I1:J4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="B14:D14"/>
-  </mergeCells>
+  <autoFilter ref="I1:J4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TimeOffDay.xlsx
+++ b/TimeOffDay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech\Attendance_violation_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB72C4-1608-4B67-BC20-A1420DF107AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49AF5B5-77E6-4522-BF02-DF1C8606A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Employee</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Sick leave</t>
-  </si>
-  <si>
-    <t>leave</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,15 +566,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10046</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/TimeOffDay.xlsx
+++ b/TimeOffDay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEITech\Attendance_violation_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49AF5B5-77E6-4522-BF02-DF1C8606A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85CF17-847B-4EF2-8033-234A23C7180F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3150" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,5 +586,6 @@
   </sheetData>
   <autoFilter ref="I1:J4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>